--- a/data/trans_dic/P28A_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P28A_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha realizado menos ejercicio respecto al último mes</t>
+          <t>Población que ha realizado menos ejercicio respecto al último mes (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,77 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>41,25%</t>
+          <t>40,76%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>28,76%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>29,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>37,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>42,38%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>30,7%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>39,53%</t>
+          <t>39,05%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>37,81%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>30,3%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,42; 49,39</t>
+          <t>33,13; 48,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,34; 38,51</t>
+          <t>21,69; 36,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,78; 43,78</t>
+          <t>23,68; 39,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,14; 24,63</t>
+          <t>10,77; 25,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,23; 40,85</t>
+          <t>21,95; 40,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,42; 46,44</t>
+          <t>30,61; 45,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,52; 40,91</t>
+          <t>24,39; 39,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,35; 50,43</t>
+          <t>28,73; 43,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,31; 28,87</t>
+          <t>14,38; 27,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,58; 42,25</t>
+          <t>22,5; 39,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34,27; 45,08</t>
+          <t>34,05; 45,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,74; 36,81</t>
+          <t>24,55; 35,35</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>31,89; 44,06</t>
+          <t>27,82; 39,34</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>14,23; 24,28</t>
+          <t>13,95; 23,76</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>25,27; 38,79</t>
+          <t>23,96; 36,32</t>
         </is>
       </c>
     </row>
@@ -850,77 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>56,94%</t>
+          <t>56,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>30,86%</t>
+          <t>30,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>27,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>26,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>54,34%</t>
+          <t>52,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,9%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>25,07%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>55,71%</t>
+          <t>54,67%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>28,95%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>30,96%</t>
+          <t>29,62%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,68; 65,55</t>
+          <t>47,74; 65,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,88; 40,84</t>
+          <t>21,7; 40,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,91; 38,02</t>
+          <t>20,74; 37,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,23; 40,78</t>
+          <t>18,28; 41,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,21; 36,81</t>
+          <t>18,17; 35,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,88; 61,08</t>
+          <t>45,42; 59,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,87; 37,05</t>
+          <t>21,42; 34,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,72; 39,78</t>
+          <t>23,25; 35,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,94; 34,6</t>
+          <t>19,47; 31,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,26; 43,96</t>
+          <t>26,4; 41,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>49,97; 60,99</t>
+          <t>49,42; 60,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,74; 36,8</t>
+          <t>23,17; 35,72</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>26,0; 36,6</t>
+          <t>23,61; 34,41</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>21,81; 34,41</t>
+          <t>21,12; 34,02</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>25,4; 37,52</t>
+          <t>23,87; 35,77</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1026,72 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>24,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,72%</t>
+          <t>49,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>31,93%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>54,29%</t>
+          <t>53,91%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>30,7%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>28,12%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,21; 65,59</t>
+          <t>51,05; 64,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,43; 41,94</t>
+          <t>23,49; 38,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,7; 40,3</t>
+          <t>25,69; 37,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,85; 34,97</t>
+          <t>19,22; 32,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,41; 35,38</t>
+          <t>21,15; 33,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,75; 55,81</t>
+          <t>44,0; 54,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,12; 36,12</t>
+          <t>24,22; 35,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,67; 37,75</t>
+          <t>25,24; 34,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,59; 25,25</t>
+          <t>15,65; 23,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,24; 38,3</t>
+          <t>23,31; 35,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>49,93; 58,74</t>
+          <t>49,57; 58,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,91; 36,15</t>
+          <t>25,88; 34,92</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>28,84; 36,89</t>
+          <t>27,06; 34,94</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>20,0; 28,01</t>
+          <t>18,58; 26,83</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>26,16; 35,13</t>
+          <t>24,14; 32,47</t>
         </is>
       </c>
     </row>
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>52,94%</t>
+          <t>52,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>27,73%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20,5%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>27,01%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>58,85%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>29,75%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>21,94%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>29,87%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>59,78%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>32,11%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,42%</t>
+          <t>28,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>56,53%</t>
+          <t>55,6%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>31,1%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>29,03%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>47,31; 59,21</t>
+          <t>46,78; 58,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,53; 32,23</t>
+          <t>19,81; 32,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,44; 35,62</t>
+          <t>22,57; 33,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,11; 27,34</t>
+          <t>16,0; 25,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,72; 37,61</t>
+          <t>20,6; 33,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,01; 64,77</t>
+          <t>52,97; 63,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,69; 37,97</t>
+          <t>25,13; 35,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,23; 37,62</t>
+          <t>24,16; 33,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,9; 27,78</t>
+          <t>18,28; 26,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,95; 40,94</t>
+          <t>25,07; 37,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52,35; 60,38</t>
+          <t>51,57; 59,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,98; 33,71</t>
+          <t>23,88; 32,12</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>27,44; 35,13</t>
+          <t>25,01; 31,91</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>19,23; 25,9</t>
+          <t>18,34; 24,8</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>27,46; 36,88</t>
+          <t>24,25; 33,35</t>
         </is>
       </c>
     </row>
@@ -1360,77 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>55,92%</t>
+          <t>55,13%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>28,72%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>61,78%</t>
+          <t>60,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>33,13%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>58,81%</t>
+          <t>57,68%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>18,23%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>48,42; 62,67</t>
+          <t>47,17; 61,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,01; 35,36</t>
+          <t>22,37; 35,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,28; 23,76</t>
+          <t>13,09; 22,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,89; 25,5</t>
+          <t>12,88; 23,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,65; 24,67</t>
+          <t>11,19; 22,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>54,95; 68,17</t>
+          <t>53,46; 66,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,71; 39,78</t>
+          <t>25,88; 38,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,27; 37,5</t>
+          <t>21,77; 31,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,88; 24,0</t>
+          <t>12,71; 21,89</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,17; 27,97</t>
+          <t>15,35; 25,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>53,6; 63,28</t>
+          <t>52,76; 62,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,38; 36,2</t>
+          <t>25,67; 34,7</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>20,91; 29,18</t>
+          <t>18,97; 25,82</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>14,94; 22,51</t>
+          <t>13,75; 20,54</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>16,21; 24,48</t>
+          <t>14,4; 22,24</t>
         </is>
       </c>
     </row>
@@ -1530,77 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>56,17%</t>
+          <t>53,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>24,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>22,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>61,12%</t>
+          <t>56,94%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>58,98%</t>
+          <t>55,5%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>24,38%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>20,05%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>49,1; 62,93</t>
+          <t>46,64; 61,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,98; 36,85</t>
+          <t>17,91; 33,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,75; 38,85</t>
+          <t>16,42; 32,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,27; 16,65</t>
+          <t>6,35; 15,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,2; 28,57</t>
+          <t>12,8; 27,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>55,26; 67,63</t>
+          <t>50,73; 63,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,63; 33,03</t>
+          <t>18,45; 29,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,72; 35,27</t>
+          <t>18,25; 29,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,21; 40,58</t>
+          <t>9,62; 24,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,06; 31,84</t>
+          <t>14,43; 29,3</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>54,47; 63,37</t>
+          <t>51,06; 59,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,79; 32,41</t>
+          <t>19,92; 29,31</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>23,05; 33,75</t>
+          <t>18,96; 27,55</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>10,09; 25,75</t>
+          <t>9,44; 19,96</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>16,84; 28,15</t>
+          <t>15,28; 25,27</t>
         </is>
       </c>
     </row>
@@ -1700,77 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>53,98%</t>
+          <t>53,17%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>54,69%</t>
+          <t>53,08%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>28,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>54,34%</t>
+          <t>53,12%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>25,81%</t>
         </is>
       </c>
     </row>
@@ -1783,77 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>50,83; 56,88</t>
+          <t>50,31; 56,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>25,92; 32,78</t>
+          <t>25,03; 31,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,15; 32,15</t>
+          <t>23,81; 29,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,98; 24,35</t>
+          <t>17,29; 23,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,31; 29,53</t>
+          <t>21,59; 27,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,25; 57,43</t>
+          <t>50,46; 55,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,95; 33,07</t>
+          <t>26,47; 31,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,59; 35,6</t>
+          <t>26,52; 31,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,33; 24,94</t>
+          <t>17,45; 21,89</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26,56; 32,55</t>
+          <t>24,46; 29,99</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>52,22; 56,4</t>
+          <t>51,07; 55,18</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>27,82; 31,98</t>
+          <t>26,49; 30,6</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>29,16; 33,07</t>
+          <t>26,08; 29,61</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>19,29; 23,48</t>
+          <t>18,03; 21,52</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>25,68; 30,11</t>
+          <t>23,63; 27,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1873,4 +1881,1969 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha realizado menos ejercicio respecto al último mes (tasa de respuesta: 99,96%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>209108</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>144373</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>158520</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>85368</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12601</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>171919</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>145763</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>185488</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>105496</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11482</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>381026</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>290135</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>344008</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>190864</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>169932; 247823</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>108883; 184205</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>123433; 206252</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>54963; 128772</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9234; 16973</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>141684; 209788</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>114321; 183359</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>147945; 222511</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>73885; 140246</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8414; 14848</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>332225; 440740</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>238350; 343216</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>288266; 407608</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>142890; 243364</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>19044; 28864</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>319381</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>172030</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>155886</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12938</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>272254</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>143397</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>150033</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>129700</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15696</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>591635</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>315427</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>305920</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>289542</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>28634</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>268969; 368516</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>124421; 233113</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>117269; 210522</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>108657; 243704</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8986; 17539</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>235650; 306605</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>110624; 178138</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>118117; 180208</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>100730; 165517</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>12461; 19372</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>534895; 650831</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>252460; 389283</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>253454; 369348</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>234823; 378207</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>23069; 34576</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>398178</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>207920</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>216744</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>169149</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16245</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>340386</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>210408</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>211649</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>138832</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15848</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>738564</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>418328</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>428393</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>307980</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>32093</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>345042; 438642</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>161237; 265572</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>174879; 258500</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>130287; 220843</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12735; 20280</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>305456; 378465</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>172561; 249648</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>180349; 249353</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>111424; 167769</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12569; 19005</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>679173; 800186</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>362021; 488472</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>377597; 487471</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>258188; 372955</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>27551; 37054</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>357.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>332147</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>164873</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>179152</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>130535</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15737</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>413850</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>203980</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>194284</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>144530</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>16393</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>745997</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>368854</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>373437</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>275064</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>32130</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>298639; 372517</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>128225; 209445</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>145819; 216552</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>101880; 164640</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12001; 19501</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>372526; 448154</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>172269; 240335</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>162667; 224922</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>120642; 174703</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>13141; 19778</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>691882; 798931</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>318342; 428121</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>330020; 421011</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>237841; 321504</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>26840; 36922</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>282226</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>139441</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>87074</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>86225</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7174</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>302882</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>162157</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>133620</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>87031</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9829</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>585109</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>301598</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>220694</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>173255</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>17003</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>241474; 316450</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>110826; 178130</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>65684; 113318</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>63541; 114583</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4977; 10103</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>268600; 332969</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>131168; 193776</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>109518; 160944</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>65494; 112754</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7488; 12556</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>535213; 630274</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>257257; 347740</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>190626; 259560</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>138637; 207179</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>13432; 20742</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>292945</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>133029</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>120278</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>53131</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8986</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>416269</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>174882</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>160288</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>100331</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>13182</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>709214</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>307912</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>280566</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>153462</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>22168</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>255050; 333954</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>97624; 183788</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>86342; 170617</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>33791; 84860</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5994; 12918</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>370889; 461615</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>132441; 213520</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>126278; 202629</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>66484; 169533</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>9196; 18669</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>652583; 766541</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>251561; 370107</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>230871; 335390</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>115419; 244214</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>16896; 27941</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>706.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>349.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>855.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>393.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>478.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>323.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1561.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>702.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>827.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>566.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>527.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1833985</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>961666</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>917655</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>684250</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>73681</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1917559</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1040588</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1035363</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>705919</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>82431</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>3751544</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2002253</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1953018</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1390169</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>156112</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1735527; 1939608</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>863403; 1070217</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>819285; 1023964</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>595555; 793961</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>65051; 82707</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1823129; 2008488</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>954952; 1136204</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>956358; 1122801</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>629814; 790199</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>74233; 90989</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3606472; 3896863</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1869161; 2159781</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1838147; 2086527</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1271807; 1517882</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>142938; 167757</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>